--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="24540" windowHeight="12720"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="24540" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
   <si>
     <t>prefix</t>
   </si>
@@ -312,6 +312,24 @@
   </si>
   <si>
     <t>Create RDF Data cubes for Clinical Results Data</t>
+  </si>
+  <si>
+    <t>codeType</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>SDTM</t>
+  </si>
+  <si>
+    <t>nciDomainValue</t>
+  </si>
+  <si>
+    <t>C66731</t>
+  </si>
+  <si>
+    <t>C74457</t>
   </si>
 </sst>
 </file>
@@ -804,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -884,259 +902,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1147,200 +1224,243 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD20"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1349,200 +1469,243 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
-    <sheet name="DM-Components" sheetId="3" r:id="rId2"/>
+    <sheet name="demog-Components" sheetId="3" r:id="rId2"/>
     <sheet name="AE-Components" sheetId="5" r:id="rId3"/>
     <sheet name="XX-Components" sheetId="6" r:id="rId4"/>
     <sheet name="CubePrefixes" sheetId="4" r:id="rId5"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>prefix</t>
   </si>
@@ -209,9 +209,6 @@
     <t>DC-Demog-R-V</t>
   </si>
   <si>
-    <t>Cube name prefix (will be appended with version number by script</t>
-  </si>
-  <si>
     <t>createdBy</t>
   </si>
   <si>
@@ -330,13 +327,23 @@
   </si>
   <si>
     <t>C74457</t>
+  </si>
+  <si>
+    <t>Cube name prefix (will be appended with version number by script
+No. Will be set in code based on domainName paramter</t>
+  </si>
+  <si>
+    <t>Demographics Analysis Results</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +424,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -479,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -512,6 +534,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,59 +860,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,10 +951,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>36</v>
@@ -945,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
@@ -961,10 +987,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>41</v>
@@ -979,7 +1005,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
@@ -995,7 +1021,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
@@ -1011,7 +1037,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
@@ -1027,10 +1053,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>49</v>
@@ -1095,130 +1121,145 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>63</v>
+      <c r="F12" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1241,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,10 +1293,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>36</v>
@@ -1368,7 +1409,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>61</v>
@@ -1380,10 +1421,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1392,10 +1433,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1404,10 +1445,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1416,10 +1457,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1428,10 +1469,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1440,10 +1481,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1452,10 +1493,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1486,7 +1527,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1497,10 +1538,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>36</v>
@@ -1613,7 +1654,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>61</v>
@@ -1625,10 +1666,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1637,10 +1678,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1649,10 +1690,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1661,10 +1702,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1673,10 +1714,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1685,10 +1726,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1697,10 +1738,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
-    <sheet name="demog-Components" sheetId="3" r:id="rId2"/>
+    <sheet name="DM-Components" sheetId="3" r:id="rId2"/>
     <sheet name="AE-Components" sheetId="5" r:id="rId3"/>
     <sheet name="XX-Components" sheetId="6" r:id="rId4"/>
     <sheet name="CubePrefixes" sheetId="4" r:id="rId5"/>
@@ -47,9 +47,6 @@
     <t>dccs</t>
   </si>
   <si>
-    <t>http://www.example.org/dc/demog/dccs/</t>
-  </si>
-  <si>
     <t>dct</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>ds</t>
   </si>
   <si>
-    <t>http://www.example.org/dc/demog/dataset/</t>
-  </si>
-  <si>
     <t>mms</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>prop</t>
   </si>
   <si>
-    <t>http://www.example.org/dc/demog/prop/</t>
-  </si>
-  <si>
     <t>prov</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>dataCubeFileName</t>
   </si>
   <si>
-    <t>DC-Demog-R-V</t>
-  </si>
-  <si>
     <t>createdBy</t>
   </si>
   <si>
@@ -258,9 +246,6 @@
   </si>
   <si>
     <t>demog.AR.csv</t>
-  </si>
-  <si>
-    <t>Data source (obsFileName)</t>
   </si>
   <si>
     <t>metadata</t>
@@ -337,6 +322,21 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>http://www.example.org/dc/DM/dccs/</t>
+  </si>
+  <si>
+    <t>http://www.example.org/dc/DM/dataset/</t>
+  </si>
+  <si>
+    <t>http://www.example.org/dc/DM/prop/</t>
+  </si>
+  <si>
+    <t>DC-DM-R-V</t>
+  </si>
+  <si>
+    <t>Data source (obsFileName). Set this programmtically based on name of input file!</t>
   </si>
 </sst>
 </file>
@@ -860,59 +860,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +931,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,316 +945,316 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1282,32 +1282,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1527,32 +1527,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1666,10 +1666,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1755,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,119 +1800,107 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="24540" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="24540" windowHeight="12720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>prefix</t>
   </si>
@@ -44,18 +44,12 @@
     <t>http://www.w3.org/ns/dcat#</t>
   </si>
   <si>
-    <t>dccs</t>
-  </si>
-  <si>
     <t>dct</t>
   </si>
   <si>
     <t>http://purl.org/dc/terms/</t>
   </si>
   <si>
-    <t>ds</t>
-  </si>
-  <si>
     <t>mms</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>http://purl.org/pav</t>
-  </si>
-  <si>
-    <t>prop</t>
   </si>
   <si>
     <t>prov</t>
@@ -322,15 +313,6 @@
   </si>
   <si>
     <t>title</t>
-  </si>
-  <si>
-    <t>http://www.example.org/dc/DM/dccs/</t>
-  </si>
-  <si>
-    <t>http://www.example.org/dc/DM/dataset/</t>
-  </si>
-  <si>
-    <t>http://www.example.org/dc/DM/prop/</t>
   </si>
   <si>
     <t>DC-DM-R-V</t>
@@ -860,59 +842,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -945,316 +927,316 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
         <v>94</v>
       </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1282,32 +1264,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1317,7 +1299,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1327,7 +1309,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1337,7 +1319,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1347,7 +1329,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1357,7 +1339,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1367,7 +1349,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1377,7 +1359,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1387,7 +1369,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1397,10 +1379,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1409,10 +1391,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1421,10 +1403,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1433,10 +1415,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1445,10 +1427,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1457,10 +1439,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1469,10 +1451,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1481,10 +1463,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1493,10 +1475,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1527,32 +1509,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1562,7 +1544,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1572,7 +1554,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1582,7 +1564,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1592,7 +1574,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1602,7 +1584,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1612,7 +1594,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1622,7 +1604,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1632,7 +1614,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1642,10 +1624,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1654,10 +1636,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1666,10 +1648,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1678,10 +1660,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1690,10 +1672,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1702,10 +1684,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1714,10 +1696,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1726,10 +1708,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1738,10 +1720,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1755,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,106 +1782,82 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
   <si>
     <t>RDF Data Cube Workbook for BUildCube.R</t>
   </si>
@@ -48,7 +48,7 @@
     <t>XX-Components</t>
   </si>
   <si>
-    <t>Specify the dimensions, measure, attributes, and cube metadata for each cube (XX).  </t>
+    <t>Specify the dimensions, measure, attributes, and cube metadata for each cube (XX).</t>
   </si>
   <si>
     <t>CubePrefixes</t>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>obsFileName</t>
+  </si>
+  <si>
+    <t>dm.AR.csv</t>
   </si>
   <si>
     <t>dataCubeFileName</t>
@@ -178,7 +181,7 @@
     <t>0.5.2</t>
   </si>
   <si>
-    <t>Version of cube with format n.n.n </t>
+    <t>Version of cube with format n.n.n</t>
   </si>
   <si>
     <t>createdBy</t>
@@ -232,13 +235,73 @@
     <t>Data source (obsFileName). Set this programmtically based on name of input file!</t>
   </si>
   <si>
-    <t>AE domain/cube, modeled after DM-COMPONENTS</t>
+    <t>domainName</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>The domain name, also part of the spreadsheet tab name</t>
+  </si>
+  <si>
+    <t>obsFileNameDirectory</t>
+  </si>
+  <si>
+    <t>!example</t>
+  </si>
+  <si>
+    <t>The directory containd the wasDerivedFrom file</t>
+  </si>
+  <si>
+    <t>dataCubeOutDirectory</t>
+  </si>
+  <si>
+    <t>!temporary</t>
+  </si>
+  <si>
+    <t>trta</t>
+  </si>
+  <si>
+    <t>aesoc</t>
+  </si>
+  <si>
+    <t>System Organ Class</t>
+  </si>
+  <si>
+    <t>aedecod</t>
+  </si>
+  <si>
+    <t>Preferred Term</t>
+  </si>
+  <si>
+    <t>https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae.xpt</t>
+  </si>
+  <si>
+    <t>ae.AR.csv</t>
+  </si>
+  <si>
+    <t>DC-AE-R-V</t>
+  </si>
+  <si>
+    <t>Cube with 6 dimensions and 1 measure (measure)</t>
+  </si>
+  <si>
+    <t>Adverse event sample table </t>
+  </si>
+  <si>
+    <t>Adverse Event Analysis Results</t>
+  </si>
+  <si>
+    <t>Adverse Events results data set</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Pages for additional domains, modeled after DM-COMPONENTS</t>
   </si>
   <si>
     <t>??</t>
-  </si>
-  <si>
-    <t>Pages for additional domains, modeled after DM-COMPONENTS</t>
   </si>
   <si>
     <t>prefix</t>
@@ -515,7 +578,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,6 +641,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -714,6 +781,12 @@
       </c>
       <c r="C3" s="0"/>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0"/>
+    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>3</v>
@@ -779,10 +852,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -981,25 +1054,27 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="A13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
         <v>49</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,15 +1082,15 @@
         <v>43</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,15 +1098,15 @@
         <v>43</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,15 +1114,15 @@
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,12 +1130,12 @@
         <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -1069,12 +1144,12 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="11"/>
     </row>
@@ -1083,12 +1158,12 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -1097,12 +1172,12 @@
         <v>43</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -1111,15 +1186,54 @@
         <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="17" t="s">
         <v>69</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +1255,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,230 +1270,377 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="10"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="F20" s="11"/>
     </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1411,24 +1672,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>72</v>
+      <c r="A1" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -1527,7 +1788,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>46</v>
@@ -1542,7 +1803,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1554,7 +1815,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1566,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1578,7 +1839,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1590,7 +1851,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1602,7 +1863,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1614,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1626,7 +1887,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1664,114 +1925,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>76</v>
+      <c r="A2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>78</v>
+      <c r="A3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>80</v>
+      <c r="A4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>82</v>
+      <c r="A5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>84</v>
+      <c r="A6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>86</v>
+      <c r="A7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>88</v>
+      <c r="A8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>90</v>
+      <c r="A9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>92</v>
+      <c r="A10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>94</v>
+      <c r="A11" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>96</v>
+      <c r="A12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>98</v>
+      <c r="A13" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>100</v>
+      <c r="A14" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
   <si>
     <t>RDF Data Cube Workbook for BUildCube.R</t>
   </si>
@@ -286,7 +286,7 @@
     <t>Cube with 6 dimensions and 1 measure (measure)</t>
   </si>
   <si>
-    <t>Adverse event sample table </t>
+    <t>Adverse event sample table</t>
   </si>
   <si>
     <t>Adverse Event Analysis Results</t>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>dummy</t>
   </si>
   <si>
     <t>Pages for additional domains, modeled after DM-COMPONENTS</t>
@@ -1255,13 +1258,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7091836734694"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2857142857143"/>
@@ -1631,15 +1634,17 @@
       <c r="B24" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae.xpt"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1673,7 +1678,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1788,7 +1793,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>46</v>
@@ -1925,114 +1930,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="125">
   <si>
     <t>RDF Data Cube Workbook for BUildCube.R</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>http://www.w3.org/2001/XMLSchema#</t>
+  </si>
+  <si>
+    <t>rrdfqbcrnd0</t>
+  </si>
+  <si>
+    <t>http://www.example.org/rrdfqbcrnd0/</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1915,10 +1921,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2040,7 +2046,18 @@
         <v>122</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="http://www.example.org/rrdfqbcrnd0/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="417"/>
   </bookViews>
   <sheets>
-    <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DM-Components" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AE-Components" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="XX-Components" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CubePrefixes" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="DEMO-Components" sheetId="6" r:id="rId1"/>
+    <sheet name="Intro" sheetId="1" r:id="rId2"/>
+    <sheet name="DM-Components" sheetId="2" r:id="rId3"/>
+    <sheet name="AE-Components" sheetId="3" r:id="rId4"/>
+    <sheet name="XX-Components" sheetId="4" r:id="rId5"/>
+    <sheet name="CubePrefixes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="128">
   <si>
     <t>RDF Data Cube Workbook for BUildCube.R</t>
   </si>
@@ -395,16 +395,22 @@
   </si>
   <si>
     <t>http://www.example.org/rrdfqbcrnd0/</t>
+  </si>
+  <si>
+    <t>demo.AR.csv</t>
+  </si>
+  <si>
+    <t>ethnic</t>
+  </si>
+  <si>
+    <t>Ethnic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -413,22 +419,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -436,7 +427,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -444,7 +435,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -452,8 +443,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -461,7 +452,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -469,7 +460,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -477,7 +468,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -485,7 +476,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -493,7 +484,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -508,7 +499,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
@@ -537,159 +528,93 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -748,61 +673,764 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="83.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="16.85546875"/>
+    <col min="3" max="3" width="83.5703125" style="1"/>
+    <col min="4" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -810,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -818,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -826,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -834,8 +1462,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -846,37 +1474,27 @@
     <hyperlink ref="B9" location="'XX-Components'!A1" display="XX-Components"/>
     <hyperlink ref="B10" location="CubePrefixes!A1" display="CubePrefixes"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="65.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="55.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="12.7109375"/>
+    <col min="2" max="4" width="18.28515625"/>
+    <col min="5" max="5" width="65.5703125" style="1"/>
+    <col min="6" max="6" width="55.7109375" style="1"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -896,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -912,7 +1530,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -922,7 +1540,7 @@
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -930,7 +1548,7 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -946,7 +1564,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -962,7 +1580,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -978,7 +1596,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1606,7 @@
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -996,7 +1614,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1628,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1024,7 +1642,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1038,7 +1656,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -1054,7 +1672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
@@ -1086,7 +1704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -1102,7 +1720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
@@ -1118,7 +1736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
@@ -1134,7 +1752,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +1766,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -1162,7 +1780,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1794,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
@@ -1190,7 +1808,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
@@ -1206,11 +1824,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1220,11 +1838,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1234,11 +1852,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1247,39 +1865,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adsl.xpt"/>
+    <hyperlink ref="E11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="11.7109375"/>
+    <col min="2" max="4" width="18.28515625"/>
+    <col min="5" max="5" width="65.5703125"/>
+    <col min="6" max="6" width="41"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1299,7 +1909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1925,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1331,7 +1941,7 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1347,7 +1957,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1363,7 +1973,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1989,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +2005,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -1409,7 +2019,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1423,7 +2033,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +2047,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>43</v>
       </c>
@@ -1453,7 +2063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -1469,7 +2079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>43</v>
       </c>
@@ -1485,7 +2095,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -1501,7 +2111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
@@ -1517,7 +2127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
@@ -1533,7 +2143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +2157,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -1561,7 +2171,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +2185,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +2199,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>43</v>
       </c>
@@ -1605,11 +2215,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1619,11 +2229,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1633,14 +2243,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1650,44 +2260,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae.xpt"/>
+    <hyperlink ref="E11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="12"/>
+    <col min="2" max="4" width="18.28515625"/>
+    <col min="5" max="5" width="23.140625"/>
+    <col min="6" max="6" width="26.85546875"/>
+    <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +2309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +2319,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +2329,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1737,7 +2339,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +2349,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +2359,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +2369,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +2379,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +2389,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
@@ -1797,7 +2399,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>94</v>
       </c>
@@ -1809,7 +2411,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +2423,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -1833,7 +2435,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
@@ -1845,7 +2447,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>43</v>
       </c>
@@ -1857,7 +2459,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1869,7 +2471,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -1881,7 +2483,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -1893,7 +2495,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
@@ -1906,35 +2508,27 @@
       <c r="F20" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.72959183673469"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="43.42578125"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>95</v>
       </c>
@@ -1942,7 +2536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>97</v>
       </c>
@@ -1950,7 +2544,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>99</v>
       </c>
@@ -1958,7 +2552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>101</v>
       </c>
@@ -1966,7 +2560,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>103</v>
       </c>
@@ -1974,7 +2568,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>105</v>
       </c>
@@ -1982,7 +2576,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>107</v>
       </c>
@@ -1990,7 +2584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>109</v>
       </c>
@@ -1998,7 +2592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>111</v>
       </c>
@@ -2006,7 +2600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>113</v>
       </c>
@@ -2014,7 +2608,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>115</v>
       </c>
@@ -2022,7 +2616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>117</v>
       </c>
@@ -2030,7 +2624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>119</v>
       </c>
@@ -2038,7 +2632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>121</v>
       </c>
@@ -2046,8 +2640,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>123</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -2056,14 +2650,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="http://www.example.org/rrdfqbcrnd0/"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="DEMO-Components" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Intro" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DM-Components" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AE-Components" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="XX-Components" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="CubePrefixes" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="DEMO-Components" sheetId="1" r:id="rId1"/>
+    <sheet name="Intro" sheetId="2" r:id="rId2"/>
+    <sheet name="DM-Components" sheetId="3" r:id="rId3"/>
+    <sheet name="AE-Components" sheetId="4" r:id="rId4"/>
+    <sheet name="XX-Components" sheetId="5" r:id="rId5"/>
+    <sheet name="CubePrefixes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="138">
   <si>
     <t>compType</t>
   </si>
@@ -49,7 +48,7 @@
     <t>DATA</t>
   </si>
   <si>
-    <t> </t>
+    <t/>
   </si>
   <si>
     <t>Treatment Arm</t>
@@ -432,16 +431,16 @@
   </si>
   <si>
     <t>http://www.example.org/rrdfqbcrnd0/</t>
+  </si>
+  <si>
+    <t>Cube name prefix (will be appended with version number by script. --&gt; No. Will be set in code based on domainName parameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -450,22 +449,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -473,7 +457,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -481,7 +465,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -489,7 +473,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -497,7 +481,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -512,7 +496,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -520,7 +504,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -528,8 +512,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -537,7 +521,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -545,7 +529,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
@@ -574,159 +558,91 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -785,34 +701,329 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="8:8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.75510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="10.85546875"/>
+    <col min="2" max="2" width="20.140625"/>
+    <col min="3" max="3" width="9.7109375"/>
+    <col min="4" max="4" width="15.85546875"/>
+    <col min="5" max="5" width="47.28515625"/>
+    <col min="6" max="6" width="81.42578125"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -852,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -870,7 +1081,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -886,7 +1097,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -902,7 +1113,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -920,7 +1131,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -935,7 +1146,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -950,7 +1161,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -966,7 +1177,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -980,7 +1191,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -994,7 +1205,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1010,7 +1221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
@@ -1039,10 +1250,10 @@
         <v>40</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1074,7 +1285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1315,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +1329,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -1132,7 +1343,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1357,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
@@ -1162,7 +1373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1194,7 +1405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1210,12 +1421,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adsl.xpt"/>
+    <hyperlink ref="E12" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1223,60 +1433,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="8:8 A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" activeCellId="1" sqref="A8:XFD8 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="83.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="8.70918367346939"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="16.85546875" style="6"/>
+    <col min="3" max="3" width="83.5703125" style="11"/>
+    <col min="4" max="1025" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2"/>
       <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7"/>
       <c r="B7" s="17" t="s">
         <v>73</v>
       </c>
@@ -1284,8 +1491,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8"/>
       <c r="B8" s="17" t="s">
         <v>75</v>
       </c>
@@ -1293,8 +1500,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9"/>
       <c r="B9" s="17" t="s">
         <v>77</v>
       </c>
@@ -1302,8 +1509,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10"/>
       <c r="B10" s="17" t="s">
         <v>79</v>
       </c>
@@ -1311,13 +1518,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -1329,37 +1536,29 @@
     <hyperlink ref="B9" location="'XX-Components'!A1" display="XX-Components"/>
     <hyperlink ref="B10" location="CubePrefixes!A1" display="CubePrefixes"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="8:8 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="A8:XFD8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="65.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="55.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
+    <col min="1" max="1" width="12.7109375" style="6"/>
+    <col min="2" max="4" width="18.28515625" style="6"/>
+    <col min="5" max="5" width="65.5703125" style="11"/>
+    <col min="6" max="6" width="55.7109375" style="11"/>
+    <col min="7" max="1025" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1594,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1612,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1429,7 +1628,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1644,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1660,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1678,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1493,7 +1692,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1706,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1521,7 +1720,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1553,7 +1752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
@@ -1569,7 +1768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -1601,7 +1800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1617,7 +1816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1830,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1844,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1659,7 +1858,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -1673,7 +1872,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -1689,7 +1888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1703,7 +1902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1717,7 +1916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1730,39 +1929,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adsl.xpt"/>
+    <hyperlink ref="E11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="8:8 D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" activeCellId="1" sqref="A8:XFD8 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="65.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="41"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
+    <col min="1" max="1" width="11.7109375" style="6"/>
+    <col min="2" max="4" width="18.28515625" style="6"/>
+    <col min="5" max="5" width="65.5703125" style="6"/>
+    <col min="6" max="6" width="41" style="6"/>
+    <col min="7" max="1025" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1989,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1814,7 +2005,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +2021,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +2037,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +2053,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +2069,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +2083,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +2097,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1920,7 +2111,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
@@ -1936,7 +2127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1952,7 +2143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +2159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -1984,7 +2175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -2000,7 +2191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2016,7 +2207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2221,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2044,7 +2235,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -2058,7 +2249,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -2072,7 +2263,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
@@ -2088,14 +2279,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="0"/>
+      <c r="D22"/>
       <c r="E22" s="11" t="s">
         <v>103</v>
       </c>
@@ -2103,14 +2294,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="0"/>
+      <c r="D23"/>
       <c r="E23" s="11" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -2135,49 +2326,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae.xpt"/>
+    <hyperlink ref="E11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="1" sqref="8:8 B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" activeCellId="1" sqref="A8:XFD8 B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="23.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="26.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
+    <col min="1" max="1" width="12" style="6"/>
+    <col min="2" max="4" width="18.28515625" style="6"/>
+    <col min="5" max="5" width="23.140625" style="6"/>
+    <col min="6" max="6" width="26.85546875" style="6"/>
+    <col min="7" max="1025" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2390,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2400,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2410,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2237,7 +2420,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2247,7 +2430,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2440,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -2267,7 +2450,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2460,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -2287,7 +2470,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>106</v>
       </c>
@@ -2299,7 +2482,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2311,7 +2494,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2506,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -2335,7 +2518,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2347,7 +2530,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2542,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2554,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -2383,7 +2566,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -2396,35 +2579,27 @@
       <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="8:8 B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" activeCellId="1" sqref="A8:XFD8 B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="43.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="6" width="8.70918367346939"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="43.42578125" style="6"/>
+    <col min="3" max="1025" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -2432,7 +2607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>109</v>
       </c>
@@ -2440,7 +2615,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>111</v>
       </c>
@@ -2448,7 +2623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>113</v>
       </c>
@@ -2456,7 +2631,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>115</v>
       </c>
@@ -2464,7 +2639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>117</v>
       </c>
@@ -2472,7 +2647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>119</v>
       </c>
@@ -2480,7 +2655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
@@ -2488,7 +2663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>123</v>
       </c>
@@ -2496,7 +2671,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -2504,7 +2679,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>127</v>
       </c>
@@ -2512,7 +2687,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>129</v>
       </c>
@@ -2520,7 +2695,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>131</v>
       </c>
@@ -2528,7 +2703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>133</v>
       </c>
@@ -2536,7 +2711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>135</v>
       </c>
@@ -2546,14 +2721,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="http://www.example.org/rrdfqbcrnd0/"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
+++ b/inst/extdata/sample-cfg/RDFCubeWorkbook.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="958" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DEMO-Components" sheetId="1" r:id="rId1"/>
-    <sheet name="Intro" sheetId="2" r:id="rId2"/>
-    <sheet name="DM-Components" sheetId="3" r:id="rId3"/>
-    <sheet name="AE-Components" sheetId="4" r:id="rId4"/>
-    <sheet name="XX-Components" sheetId="5" r:id="rId5"/>
-    <sheet name="CubePrefixes" sheetId="6" r:id="rId6"/>
+    <sheet name="DEMO-Components" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Intro" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DM-Components" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AE-Components" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="XX-Components" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CubePrefixes" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="143">
   <si>
     <t>compType</t>
   </si>
@@ -48,9 +49,6 @@
     <t>DATA</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Treatment Arm</t>
   </si>
   <si>
@@ -123,6 +121,24 @@
     <t>Denominator for a proportion (oskr) subset on which a statistic is based</t>
   </si>
   <si>
+    <t>colno</t>
+  </si>
+  <si>
+    <t>Column number for two dimensional represenation</t>
+  </si>
+  <si>
+    <t>rowno</t>
+  </si>
+  <si>
+    <t>Row number for two dimensional represenation</t>
+  </si>
+  <si>
+    <t>cellpartno</t>
+  </si>
+  <si>
+    <t>Position within cell given by row and column number for two dimensional represenation</t>
+  </si>
+  <si>
     <t>metadata</t>
   </si>
   <si>
@@ -142,144 +158,147 @@
   </si>
   <si>
     <t>DC-DEMO-R-V</t>
+  </si>
+  <si>
+    <t>Cube name prefix (will be appended with version number by script. --&gt; No. Will be set in code based on domainName parameter</t>
+  </si>
+  <si>
+    <t>cubeVersion</t>
+  </si>
+  <si>
+    <t>0.5.2</t>
+  </si>
+  <si>
+    <t>Version of cube with format n.n.n</t>
+  </si>
+  <si>
+    <t>createdBy</t>
+  </si>
+  <si>
+    <t>Marc Andersen</t>
+  </si>
+  <si>
+    <t>Person who configures this spreadsheet and runs the creation script to create the cube</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Data from demo.sas program</t>
+  </si>
+  <si>
+    <t>Cube description</t>
+  </si>
+  <si>
+    <t>providedBy</t>
+  </si>
+  <si>
+    <t>PhUSE Results Metadata Working Group</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Example demographics table from demo.sas program</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Demographics Analysis Results</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Demographics results data set.</t>
+  </si>
+  <si>
+    <t>wasDerivedFrom</t>
+  </si>
+  <si>
+    <t>Data source (obsFileName). Set this programmtically based on name of input file!</t>
+  </si>
+  <si>
+    <t>domainName</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>The domain name, also part of the spreadsheet tab name</t>
+  </si>
+  <si>
+    <t>obsFileNameDirectory</t>
+  </si>
+  <si>
+    <t>!example</t>
+  </si>
+  <si>
+    <t>The directory containd the wasDerivedFrom file</t>
+  </si>
+  <si>
+    <t>dataCubeOutDirectory</t>
+  </si>
+  <si>
+    <t>!temporary</t>
+  </si>
+  <si>
+    <t>RDF Data Cube Workbook for BUildCube.R</t>
+  </si>
+  <si>
+    <t>Create RDF Data cubes for Clinical Results Data</t>
+  </si>
+  <si>
+    <t>Reference: &lt;add reference to the documentation for cube creation&gt;</t>
+  </si>
+  <si>
+    <t>Worksheets:</t>
+  </si>
+  <si>
+    <t>DM-Components</t>
+  </si>
+  <si>
+    <t>Dimensions, measure, attributes, and cube metadata for Demographics</t>
+  </si>
+  <si>
+    <t>AE-Components</t>
+  </si>
+  <si>
+    <t>Dimensions, measure, attributes, and cube metadata for Adverse Events</t>
+  </si>
+  <si>
+    <t>XX-Components</t>
+  </si>
+  <si>
+    <t>Specify the dimensions, measure, attributes, and cube metadata for each cube (XX).</t>
+  </si>
+  <si>
+    <t>CubePrefixes</t>
+  </si>
+  <si>
+    <t>Prefixes nused in cube creation.  No modification necessary unless the cube model is extended by the user</t>
+  </si>
+  <si>
+    <t>&lt;more information here….&gt;</t>
+  </si>
+  <si>
+    <t>saffl</t>
+  </si>
+  <si>
+    <t>Safety Population Flag</t>
+  </si>
+  <si>
+    <t>dm.AR.csv</t>
+  </si>
+  <si>
+    <t>DC-DM-R-V</t>
   </si>
   <si>
     <t>Cube name prefix (will be appended with version number by script
 No. Will be set in code based on domainName paramter</t>
   </si>
   <si>
-    <t>cubeVersion</t>
-  </si>
-  <si>
-    <t>0.5.2</t>
-  </si>
-  <si>
-    <t>Version of cube with format n.n.n</t>
-  </si>
-  <si>
-    <t>createdBy</t>
-  </si>
-  <si>
-    <t>Marc Andersen</t>
-  </si>
-  <si>
-    <t>Person who configures this spreadsheet and runs the creation script to create the cube</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Data from demo.sas program</t>
-  </si>
-  <si>
-    <t>Cube description</t>
-  </si>
-  <si>
-    <t>providedBy</t>
-  </si>
-  <si>
-    <t>PhUSE Results Metadata Working Group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Example demographics table from demo.sas program</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Demographics Analysis Results</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Demographics results data set.</t>
-  </si>
-  <si>
-    <t>wasDerivedFrom</t>
-  </si>
-  <si>
-    <t>Data source (obsFileName). Set this programmtically based on name of input file!</t>
-  </si>
-  <si>
-    <t>domainName</t>
-  </si>
-  <si>
-    <t>DEMO</t>
-  </si>
-  <si>
-    <t>The domain name, also part of the spreadsheet tab name</t>
-  </si>
-  <si>
-    <t>obsFileNameDirectory</t>
-  </si>
-  <si>
-    <t>!example</t>
-  </si>
-  <si>
-    <t>The directory containd the wasDerivedFrom file</t>
-  </si>
-  <si>
-    <t>dataCubeOutDirectory</t>
-  </si>
-  <si>
-    <t>!temporary</t>
-  </si>
-  <si>
-    <t>RDF Data Cube Workbook for BUildCube.R</t>
-  </si>
-  <si>
-    <t>Create RDF Data cubes for Clinical Results Data</t>
-  </si>
-  <si>
-    <t>Reference: &lt;add reference to the documentation for cube creation&gt;</t>
-  </si>
-  <si>
-    <t>Worksheets:</t>
-  </si>
-  <si>
-    <t>DM-Components</t>
-  </si>
-  <si>
-    <t>Dimensions, measure, attributes, and cube metadata for Demographics</t>
-  </si>
-  <si>
-    <t>AE-Components</t>
-  </si>
-  <si>
-    <t>Dimensions, measure, attributes, and cube metadata for Adverse Events</t>
-  </si>
-  <si>
-    <t>XX-Components</t>
-  </si>
-  <si>
-    <t>Specify the dimensions, measure, attributes, and cube metadata for each cube (XX).</t>
-  </si>
-  <si>
-    <t>CubePrefixes</t>
-  </si>
-  <si>
-    <t>Prefixes nused in cube creation.  No modification necessary unless the cube model is extended by the user</t>
-  </si>
-  <si>
-    <t>&lt;more information here….&gt;</t>
-  </si>
-  <si>
-    <t>saffl</t>
-  </si>
-  <si>
-    <t>Safety Population Flag</t>
-  </si>
-  <si>
-    <t>dm.AR.csv</t>
-  </si>
-  <si>
-    <t>DC-DM-R-V</t>
-  </si>
-  <si>
     <t>Tim Williams</t>
   </si>
   <si>
@@ -431,16 +450,16 @@
   </si>
   <si>
     <t>http://www.example.org/rrdfqbcrnd0/</t>
-  </si>
-  <si>
-    <t>Cube name prefix (will be appended with version number by script. --&gt; No. Will be set in code based on domainName parameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,7 +468,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -457,7 +491,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -465,7 +499,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -473,7 +507,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -481,7 +515,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -496,7 +530,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -504,7 +538,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -512,8 +546,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -521,7 +555,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -529,7 +563,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="14"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
@@ -558,91 +592,159 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -701,329 +803,34 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
-    <col min="2" max="2" width="20.140625"/>
-    <col min="3" max="3" width="9.7109375"/>
-    <col min="4" max="4" width="15.85546875"/>
-    <col min="5" max="5" width="47.28515625"/>
-    <col min="6" max="6" width="81.42578125"/>
-    <col min="7" max="1025" width="11.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.70918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1053,379 +860,414 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="E12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
+      <c r="E14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="10"/>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="5" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="10"/>
       <c r="E18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="11" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="11" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
+    <hyperlink ref="E15" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adsl.xpt"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1433,100 +1275,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A8:XFD8 A12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="16.85546875" style="6"/>
-    <col min="3" max="3" width="83.5703125" style="11"/>
-    <col min="4" max="1025" width="8.7109375" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="16.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="83.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="6" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" s="6" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
       <c r="B7" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
       <c r="B9" s="17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1536,29 +2391,37 @@
     <hyperlink ref="B9" location="'XX-Components'!A1" display="XX-Components"/>
     <hyperlink ref="B10" location="CubePrefixes!A1" display="CubePrefixes"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="A8:XFD8 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="6"/>
-    <col min="2" max="4" width="18.28515625" style="6"/>
-    <col min="5" max="5" width="65.5703125" style="11"/>
-    <col min="6" max="6" width="55.7109375" style="11"/>
-    <col min="7" max="1025" width="8.7109375" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="12.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="65.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="55.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +2441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1590,370 +2453,378 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adsl.xpt"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" activeCellId="1" sqref="A8:XFD8 D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="6"/>
-    <col min="2" max="4" width="18.28515625" style="6"/>
-    <col min="5" max="5" width="65.5703125" style="6"/>
-    <col min="6" max="6" width="41" style="6"/>
-    <col min="7" max="1025" width="8.7109375" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="65.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="41"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1973,394 +2844,402 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22"/>
+        <v>66</v>
+      </c>
+      <c r="D22" s="0"/>
       <c r="E22" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23"/>
+        <v>69</v>
+      </c>
+      <c r="D23" s="0"/>
       <c r="E23" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F24" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://phuse-scripts.googlecode.com/svn/trunk/scriptathon2014/data/adae.xpt"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" activeCellId="1" sqref="A8:XFD8 B41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="6"/>
-    <col min="2" max="4" width="18.28515625" style="6"/>
-    <col min="5" max="5" width="23.140625" style="6"/>
-    <col min="6" max="6" width="26.85546875" style="6"/>
-    <col min="7" max="1025" width="8.7109375" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="6" width="18.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="23.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="26.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="6" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2390,7 +3269,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +3279,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +3289,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +3299,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +3309,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2440,9 +3319,9 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2450,9 +3329,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2460,9 +3339,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2470,108 +3349,108 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2579,151 +3458,164 @@
       <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="1" sqref="A8:XFD8 B19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="43.42578125" style="6"/>
-    <col min="3" max="1025" width="8.7109375" style="6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="43.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="6" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1" display="http://www.example.org/rrdfqbcrnd0/"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>